--- a/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>NGenes</t>
   </si>
@@ -68,96 +68,99 @@
     <t>fnu03020</t>
   </si>
   <si>
+    <t>fnu00780</t>
+  </si>
+  <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
+    <t>fnu01100</t>
+  </si>
+  <si>
     <t>fnu00640</t>
   </si>
   <si>
-    <t>fnu00410</t>
-  </si>
-  <si>
-    <t>fnu00780</t>
-  </si>
-  <si>
-    <t>fnu01100</t>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu00010</t>
+  </si>
+  <si>
+    <t>fnu00500</t>
+  </si>
+  <si>
+    <t>fnu01120</t>
   </si>
   <si>
     <t>fnu00280</t>
   </si>
   <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00010</t>
+    <t>fnu03440</t>
+  </si>
+  <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
+    <t>fnu00620</t>
+  </si>
+  <si>
+    <t>fnu00680</t>
   </si>
   <si>
     <t>fnu00071</t>
   </si>
   <si>
-    <t>fnu01120</t>
-  </si>
-  <si>
-    <t>fnu00500</t>
-  </si>
-  <si>
-    <t>fnu03440</t>
-  </si>
-  <si>
     <t>fnu01212</t>
   </si>
   <si>
-    <t>fnu00620</t>
-  </si>
-  <si>
-    <t>fnu00680</t>
-  </si>
-  <si>
     <t>rpoE</t>
   </si>
   <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu00790</t>
+  </si>
+  <si>
+    <t>fnu03410</t>
+  </si>
+  <si>
     <t>fnu01110</t>
   </si>
   <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu00790</t>
-  </si>
-  <si>
-    <t>fnu03410</t>
-  </si>
-  <si>
     <t>fnu00564</t>
   </si>
   <si>
+    <t>fnu01240</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu00061</t>
+  </si>
+  <si>
+    <t>fnu00380</t>
+  </si>
+  <si>
+    <t>fnu03430</t>
+  </si>
+  <si>
+    <t>fnu00030</t>
+  </si>
+  <si>
+    <t>fnu00900</t>
+  </si>
+  <si>
+    <t>fnu00561</t>
+  </si>
+  <si>
     <t>fnu00670</t>
   </si>
   <si>
-    <t>fnu01240</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
-    <t>fnu00061</t>
-  </si>
-  <si>
-    <t>fnu00380</t>
-  </si>
-  <si>
-    <t>fnu03430</t>
-  </si>
-  <si>
-    <t>fnu00030</t>
-  </si>
-  <si>
-    <t>fnu00900</t>
-  </si>
-  <si>
-    <t>fnu00561</t>
-  </si>
-  <si>
     <t>fnu00630</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>fnu00430</t>
   </si>
   <si>
+    <t>fnu00710</t>
+  </si>
+  <si>
     <t>fnu00330</t>
   </si>
   <si>
@@ -182,132 +188,141 @@
     <t>fnu01210</t>
   </si>
   <si>
+    <t>fnu00020</t>
+  </si>
+  <si>
+    <t>fnu00074</t>
+  </si>
+  <si>
+    <t>fnu00540</t>
+  </si>
+  <si>
+    <t>fnu00350</t>
+  </si>
+  <si>
+    <t>fnu00740</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00240</t>
+  </si>
+  <si>
+    <t>fnu00470</t>
+  </si>
+  <si>
+    <t>fnu00520</t>
+  </si>
+  <si>
+    <t>fnu00260</t>
+  </si>
+  <si>
+    <t>fnu04981</t>
+  </si>
+  <si>
+    <t>fnu00130</t>
+  </si>
+  <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu00360</t>
+  </si>
+  <si>
+    <t>fnu00460</t>
+  </si>
+  <si>
+    <t>fnu00220</t>
+  </si>
+  <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu00400</t>
+  </si>
+  <si>
+    <t>fnu00730</t>
+  </si>
+  <si>
+    <t>fnu00760</t>
+  </si>
+  <si>
+    <t>fnu03420</t>
+  </si>
+  <si>
+    <t>fnu02024</t>
+  </si>
+  <si>
+    <t>fnu00340</t>
+  </si>
+  <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
+    <t>fnu00480</t>
+  </si>
+  <si>
+    <t>fnu00523</t>
+  </si>
+  <si>
     <t>fnu01503</t>
   </si>
   <si>
-    <t>fnu00020</t>
-  </si>
-  <si>
-    <t>fnu00540</t>
-  </si>
-  <si>
-    <t>fnu00350</t>
-  </si>
-  <si>
-    <t>fnu00740</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00240</t>
+    <t>fnu02020</t>
+  </si>
+  <si>
+    <t>fnu00920</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
+  </si>
+  <si>
+    <t>fnu01502</t>
+  </si>
+  <si>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu03070</t>
+  </si>
+  <si>
+    <t>fnu00552</t>
+  </si>
+  <si>
+    <t>fnu00550</t>
+  </si>
+  <si>
+    <t>fnu04122</t>
+  </si>
+  <si>
+    <t>fnu03010</t>
+  </si>
+  <si>
+    <t>fnu00541</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
   </si>
   <si>
     <t>fnu01501</t>
   </si>
   <si>
-    <t>fnu00470</t>
-  </si>
-  <si>
-    <t>fnu00520</t>
-  </si>
-  <si>
-    <t>fnu00260</t>
-  </si>
-  <si>
-    <t>fnu00130</t>
-  </si>
-  <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu00360</t>
-  </si>
-  <si>
-    <t>fnu00460</t>
-  </si>
-  <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu00400</t>
-  </si>
-  <si>
-    <t>fnu00730</t>
-  </si>
-  <si>
-    <t>fnu02024</t>
-  </si>
-  <si>
-    <t>fnu03420</t>
-  </si>
-  <si>
-    <t>fnu00340</t>
-  </si>
-  <si>
-    <t>fnu00480</t>
-  </si>
-  <si>
-    <t>fnu00523</t>
-  </si>
-  <si>
-    <t>fnu02020</t>
-  </si>
-  <si>
-    <t>fnu00760</t>
-  </si>
-  <si>
-    <t>fnu00220</t>
-  </si>
-  <si>
-    <t>fnu00625</t>
-  </si>
-  <si>
-    <t>fnu01502</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu00920</t>
-  </si>
-  <si>
-    <t>fnu03070</t>
-  </si>
-  <si>
-    <t>fnu00552</t>
-  </si>
-  <si>
-    <t>fnu00550</t>
-  </si>
-  <si>
-    <t>fnu04122</t>
-  </si>
-  <si>
-    <t>fnu03010</t>
-  </si>
-  <si>
-    <t>fnu00541</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
     <t>fnu00770</t>
   </si>
   <si>
+    <t>fnu00270</t>
+  </si>
+  <si>
+    <t>fnu03060</t>
+  </si>
+  <si>
     <t>fnu02010</t>
   </si>
   <si>
-    <t>fnu00270</t>
-  </si>
-  <si>
-    <t>fnu03060</t>
-  </si>
-  <si>
     <t>Down</t>
   </si>
   <si>
@@ -344,93 +359,96 @@
     <t>RNA polymerase</t>
   </si>
   <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Metabolic pathways</t>
+  </si>
+  <si>
     <t>Propanoate metabolism</t>
   </si>
   <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>Metabolic pathways</t>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
   </si>
   <si>
     <t>Valine, leucine and isoleucine degradation</t>
   </si>
   <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Methane metabolism</t>
   </si>
   <si>
     <t>Fatty acid degradation</t>
   </si>
   <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
     <t>Fatty acid metabolism</t>
   </si>
   <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
   </si>
   <si>
     <t>Biosynthesis of secondary metabolites</t>
   </si>
   <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
     <t>Glycerophospholipid metabolism</t>
   </si>
   <si>
+    <t>Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
-    <t>Biosynthesis of cofactors</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
     <t>Glyoxylate and dicarboxylate metabolism</t>
   </si>
   <si>
@@ -443,6 +461,9 @@
     <t>Taurine and hypotaurine metabolism</t>
   </si>
   <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
     <t>Arginine and proline metabolism</t>
   </si>
   <si>
@@ -455,132 +476,141 @@
     <t>2-Oxocarboxylic acid metabolism</t>
   </si>
   <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Nucleotide excision repair</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
     <t>Cationic antimicrobial peptide (CAMP) resistance</t>
   </si>
   <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Teichoic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Sulfur relay system</t>
+  </si>
+  <si>
+    <t>Ribosome</t>
+  </si>
+  <si>
+    <t>O-Antigen nucleotide sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
   </si>
   <si>
     <t>beta-Lactam resistance</t>
   </si>
   <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Quorum sensing</t>
-  </si>
-  <si>
-    <t>Nucleotide excision repair</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Polyketide sugar unit biosynthesis</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>Arginine biosynthesis</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
-    <t>Teichoic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>Sulfur relay system</t>
-  </si>
-  <si>
-    <t>Ribosome</t>
-  </si>
-  <si>
-    <t>O-Antigen nucleotide sugar biosynthesis</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
     <t>Pantothenate and CoA biosynthesis</t>
   </si>
   <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Protein export</t>
+  </si>
+  <si>
     <t>ABC transporters</t>
   </si>
   <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Protein export</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_03680</t>
   </si>
   <si>
@@ -611,40 +641,37 @@
     <t>cds-C4N14_05715;cds-C4N14_01840;cds-C4N14_01855;cds-C4N14_01860</t>
   </si>
   <si>
-    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_04135;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_03470</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06680;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03430;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
+    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
   </si>
   <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_09430;cds-C4N14_08225;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07595;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01950</t>
   </si>
   <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_04335;cds-C4N14_04465;cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_10095;cds-C4N14_09560;cds-C4N14_09505;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_06635;cds-C4N14_06360;cds-C4N14_06045;cds-C4N14_05595;cds-C4N14_10345;cds-C4N14_10885;cds-C4N14_00445;cds-C4N14_00855;cds-C4N14_03915;cds-C4N14_02900;cds-C4N14_02340</t>
   </si>
   <si>
-    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03815</t>
+    <t>cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09750;cds-C4N14_08525;cds-C4N14_08240;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_02080</t>
   </si>
   <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
@@ -653,12 +680,15 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_01390</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
+  </si>
+  <si>
     <t>cds-C4N14_03280;cds-C4N14_02960;cds-C4N14_09830;cds-C4N14_05965;cds-FoxI;cds-C4N14_03355;cds-C4N14_09820;cds-C4N14_09825;cds-C4N14_09130;cds-C4N14_09125;cds-C4N14_08200;cds-C4N14_07915;cds-C4N14_07920;cds-C4N14_09840;cds-C4N14_05930;cds-C4N14_09850;cds-C4N14_06785;cds-C4N14_03135;cds-C4N14_03630;cds-C4N14_05935;cds-C4N14_06060;cds-C4N14_05940;cds-C4N14_05955;cds-C4N14_01185;cds-C4N14_09845;cds-C4N14_05960;cds-C4N14_07925;cds-C4N14_05945;cds-C4N14_04025;cds-C4N14_05950;cds-C4N14_06795;cds-C4N14_06065;cds-C4N14_06685;cds-C4N14_06080;cds-C4N14_06790;cds-C4N14_06090;cds-C4N14_06125;cds-C4N14_06105;cds-C4N14_03635;cds-FunR7;cds-C4N14_06085;cds-C4N14_06095;cds-C4N14_07930;cds-C4N14_06120;cds-C4N14_06070;cds-C4N14_06690;cds-C4N14_08460;cds-C4N14_06075;cds-C4N14_08420;cds-C4N14_06100;cds-C4N14_08425;cds-C4N14_08415;cds-C4N14_08440;cds-C4N14_01180;cds-C4N14_09835;cds-C4N14_06110;cds-C4N14_05525;cds-C4N14_04020;cds-C4N14_03890;cds-C4N14_08450;cds-C4N14_08430;cds-C4N14_08455;cds-C4N14_01565;cds-C4N14_01300;cds-C4N14_03940;cds-C4N14_03885;cds-C4N14_06775;cds-C4N14_06115;cds-C4N14_08435;cds-C4N14_03895;cds-C4N14_03905;cds-C4N14_08445;cds-C4N14_03900;cds-C4N14_01295;cds-C4N14_10275;cds-C4N14_06800;cds-C4N14_03935;cds-C4N14_03520;cds-C4N14_06780;cds-C4N14_03910;cds-C4N14_03535;cds-C4N14_03130;cds-C4N14_03930;cds-C4N14_03925;cds-C4N14_03915;cds-C4N14_10265;cds-C4N14_10260;cds-C4N14_07010;cds-C4N14_07005;cds-C4N14_03530;cds-C4N14_04030;cds-C4N14_03920;cds-C4N14_10255;cds-C4N14_03880;cds-C4N14_03525;cds-C4N14_10270;cds-C4N14_07030;cds-C4N14_05180;cds-C4N14_08750;cds-C4N14_08740;cds-C4N14_07015;cds-C4N14_07025;cds-C4N14_08730;cds-C4N14_05250;cds-C4N14_07020;cds-C4N14_05230;cds-C4N14_07035;cds-C4N14_05245;cds-C4N14_05240;cds-C4N14_05420;cds-C4N14_08745;cds-C4N14_08725;cds-C4N14_08735;cds-C4N14_05215;cds-C4N14_05235;cds-C4N14_05190;cds-C4N14_05220;cds-C4N14_08720;cds-C4N14_05205;cds-C4N14_05200;cds-C4N14_05185;cds-C4N14_05225;cds-C4N14_05195;cds-C4N14_05210;cds-C4N14_07040</t>
   </si>
   <si>
-    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
-  </si>
-  <si>
     <t>cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04400;cds-C4N14_09750;cds-C4N14_07070</t>
   </si>
   <si>
@@ -668,21 +698,21 @@
     <t>cds-C4N14_02570;cds-C4N14_02620;cds-C4N14_05260;cds-C4N14_07665;cds-C4N14_06000;cds-C4N14_01175;cds-C4N14_02900</t>
   </si>
   <si>
+    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10420;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+  </si>
+  <si>
     <t>cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_04295;cds-C4N14_05135;cds-C4N14_09555;cds-C4N14_07640;cds-C4N14_07560;cds-C4N14_07220;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05475;cds-C4N14_01065;cds-C4N14_03615;cds-C4N14_03535;cds-C4N14_03425</t>
   </si>
   <si>
-    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02625;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02805;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04575;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09755;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09260;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08525;cds-C4N14_08400;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07725;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07100;cds-C4N14_06485;cds-C4N14_06120;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_10735;cds-C4N14_10865;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00585;cds-C4N14_00670;cds-C4N14_01225;cds-C4N14_01230;cds-C4N14_01235;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01515;cds-C4N14_03415;cds-C4N14_02030;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_02395;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09965;cds-C4N14_09785;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07240;cds-C4N14_06380;cds-C4N14_10420;cds-C4N14_00585</t>
   </si>
   <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
@@ -701,6 +731,9 @@
     <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_09750;cds-C4N14_03800;cds-C4N14_03790</t>
   </si>
   <si>
@@ -713,6 +746,9 @@
     <t>cds-C4N14_09785;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_06265;cds-C4N14_06260</t>
   </si>
   <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_03680</t>
+  </si>
+  <si>
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
@@ -725,12 +761,12 @@
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
-    <t>cds-C4N14_09255;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_06555;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
+    <t>cds-C4N14_04125;cds-C4N14_10145</t>
+  </si>
+  <si>
     <t>cds-C4N14_04460;cds-C4N14_09720;cds-C4N14_09520;cds-C4N14_09265;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_08185;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_07090;cds-C4N14_06495;cds-C4N14_06010;cds-C4N14_00590;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03530</t>
   </si>
   <si>
@@ -746,9 +782,6 @@
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04920;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05485;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_03565</t>
   </si>
   <si>
-    <t>cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_09465;cds-C4N14_06320;cds-C4N14_10420;cds-C4N14_10690;cds-C4N14_10710;cds-C4N14_00495;cds-C4N14_01240;cds-C4N14_03755;cds-C4N14_03750</t>
   </si>
   <si>
@@ -758,6 +791,9 @@
     <t>cds-C4N14_04955;cds-C4N14_09465;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07220;cds-C4N14_06625;cds-C4N14_10485</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_07660</t>
+  </si>
+  <si>
     <t>cds-C4N14_00245;cds-C4N14_00250</t>
   </si>
   <si>
@@ -770,6 +806,9 @@
     <t>cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07790;cds-C4N14_07470</t>
   </si>
   <si>
+    <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+  </si>
+  <si>
     <t>cds-C4N14_02805;cds-C4N14_09925;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_05815;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_01515;cds-C4N14_02030</t>
   </si>
   <si>
@@ -779,28 +818,34 @@
     <t>cds-C4N14_02625;cds-C4N14_08830;cds-C4N14_07725;cds-C4N14_06090;cds-C4N14_05620;cds-C4N14_10740;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10245;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
   </si>
   <si>
     <t>cds-C4N14_02440;cds-C4N14_04515;cds-C4N14_09610;cds-C4N14_09270;cds-C4N14_06700;cds-C4N14_06640;cds-C4N14_01175</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+  </si>
+  <si>
     <t>cds-C4N14_10035;cds-C4N14_09955;cds-C4N14_08930;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_05600</t>
+  </si>
+  <si>
     <t>cds-C4N14_09985;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_05745;cds-C4N14_10475;cds-C4N14_01585;cds-C4N14_03545;cds-C4N14_02995</t>
   </si>
   <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
-    <t>cds-C4N14_04325;cds-C4N14_04330;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_03430</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
+    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
   </si>
   <si>
     <t>cds-C4N14_04880;cds-C4N14_09955</t>
@@ -815,9 +860,6 @@
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
-    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06030;cds-C4N14_01300</t>
-  </si>
-  <si>
     <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
   </si>
   <si>
@@ -839,16 +881,19 @@
     <t>cds-C4N14_08825;cds-C4N14_05800;cds-C4N14_10515</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
   </si>
   <si>
-    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
-  </si>
-  <si>
     <t>cds-C4N14_04180;cds-C4N14_05175;cds-C4N14_09115;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06275;cds-C4N14_06030;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10525;cds-C4N14_00370;cds-C4N14_01300;cds-C4N14_01305</t>
   </si>
   <si>
     <t>cds-C4N14_02370;cds-C4N14_02675;cds-C4N14_05250;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00220;cds-C4N14_00225;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
   </si>
 </sst>
 </file>
@@ -934,25 +979,25 @@
         <v>10.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
         <v>2.6648767839220975E-10</v>
       </c>
       <c r="E2" t="n">
-        <v>2.3983891055298877E-8</v>
+        <v>2.5316329447259928E-8</v>
       </c>
       <c r="F2" t="n">
         <v>9.566397567211696E-8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0999409293879333E-7</v>
+        <v>2.1638280211550264E-7</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -963,25 +1008,25 @@
         <v>12.0</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>2.819110176185454E-8</v>
       </c>
       <c r="E3" t="n">
-        <v>7.234952063139304E-7</v>
+        <v>7.636893844424821E-7</v>
       </c>
       <c r="F3" t="n">
         <v>3.964219543171816E-12</v>
       </c>
       <c r="G3" t="n">
-        <v>3.243452353504213E-11</v>
+        <v>3.423644150921114E-11</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -992,25 +1037,25 @@
         <v>29.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
         <v>3.174013623310927E-8</v>
       </c>
       <c r="E4" t="n">
-        <v>7.234952063139304E-7</v>
+        <v>7.636893844424821E-7</v>
       </c>
       <c r="F4" t="n">
         <v>2.961864772923097E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1106992898461614E-8</v>
+        <v>1.172404805948726E-8</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1021,25 +1066,25 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
         <v>3.8503547596823726E-8</v>
       </c>
       <c r="E5" t="n">
-        <v>7.234952063139304E-7</v>
+        <v>7.636893844424821E-7</v>
       </c>
       <c r="F5" t="n">
         <v>0.05645713247733448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0705714155966681</v>
+        <v>0.07151236780462367</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1050,25 +1095,25 @@
         <v>18.0</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
         <v>4.019417812855169E-8</v>
       </c>
       <c r="E6" t="n">
-        <v>7.234952063139304E-7</v>
+        <v>7.636893844424821E-7</v>
       </c>
       <c r="F6" t="n">
         <v>5.145388454111683E-13</v>
       </c>
       <c r="G6" t="n">
-        <v>9.26169921740103E-12</v>
+        <v>9.776238062812198E-12</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1079,25 +1124,25 @@
         <v>23.0</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
         <v>5.274049908518786E-8</v>
       </c>
       <c r="E7" t="n">
-        <v>7.911074862778179E-7</v>
+        <v>8.350579021821412E-7</v>
       </c>
       <c r="F7" t="n">
         <v>1.307310129254811E-12</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6808273090419E-11</v>
+        <v>1.552430778490088E-11</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1108,25 +1153,25 @@
         <v>2.0</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
         <v>7.175723022837538E-8</v>
       </c>
       <c r="E8" t="n">
-        <v>8.326783979727592E-7</v>
+        <v>8.789383089712459E-7</v>
       </c>
       <c r="F8" t="n">
         <v>0.18664368638849643</v>
       </c>
       <c r="G8" t="n">
-        <v>0.21400158951093973</v>
+        <v>0.21244469964015905</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1137,25 +1182,25 @@
         <v>27.0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
         <v>7.40158575975786E-8</v>
       </c>
       <c r="E9" t="n">
-        <v>8.326783979727592E-7</v>
+        <v>8.789383089712459E-7</v>
       </c>
       <c r="F9" t="n">
         <v>8.021460794744102E-13</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2032191192116152E-11</v>
+        <v>1.2014716250700605E-11</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1166,25 +1211,25 @@
         <v>11.0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
         <v>1.8753051471350916E-7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.839054813211582E-6</v>
+        <v>1.9794887664203744E-6</v>
       </c>
       <c r="F10" t="n">
         <v>6.02035890638966E-8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42587447782913E-7</v>
+        <v>1.4664976823256863E-7</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1195,25 +1240,25 @@
         <v>4.0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
         <v>2.3513954897910537E-7</v>
       </c>
       <c r="E11" t="n">
-        <v>1.839054813211582E-6</v>
+        <v>2.216144673992251E-6</v>
       </c>
       <c r="F11" t="n">
         <v>0.002311277973508396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003466916960262594</v>
+        <v>0.0034852604362428192</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1221,28 +1266,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>2.4606541621319033E-7</v>
+        <v>2.656412507972285E-7</v>
       </c>
       <c r="E12" t="n">
-        <v>1.839054813211582E-6</v>
+        <v>2.216144673992251E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>6.217302028904988E-6</v>
+        <v>3.8560219118000786E-7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0971709462773508E-5</v>
+        <v>8.140490702689055E-7</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1250,28 +1295,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>2.57754588486938E-7</v>
+        <v>2.7993406408323165E-7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.839054813211582E-6</v>
+        <v>2.216144673992251E-6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009142793232708236</v>
+        <v>0.049891868761071746</v>
       </c>
       <c r="G13" t="n">
-        <v>0.012281364043936437</v>
+        <v>0.06405037205813265</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1279,28 +1324,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0</v>
+        <v>356.0</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>2.656412507972285E-7</v>
+        <v>3.5493909550166376E-7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.839054813211582E-6</v>
+        <v>2.5937856978967734E-6</v>
       </c>
       <c r="F14" t="n">
-        <v>3.8560219118000786E-7</v>
+        <v>1.8749534935682125E-11</v>
       </c>
       <c r="G14" t="n">
-        <v>7.544390697000154E-7</v>
+        <v>1.2722898706355728E-10</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1308,28 +1353,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>359.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>3.452078813401738E-7</v>
+        <v>3.923230123979362E-7</v>
       </c>
       <c r="E15" t="n">
-        <v>2.219193522901117E-6</v>
+        <v>2.6621918698431384E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8351985151049315E-11</v>
+        <v>3.277994832117315E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.1797704739960273E-10</v>
+        <v>5.4633247201955246E-5</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1337,28 +1382,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>4.6002419332627696E-7</v>
+        <v>5.220252678775813E-7</v>
       </c>
       <c r="E16" t="n">
-        <v>2.6619932876937793E-6</v>
+        <v>3.306160029891348E-6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0038109087492323116</v>
+        <v>1.4322917269173968E-9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00544415535604616</v>
+        <v>6.184896093506941E-9</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1366,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>4.7324325114556077E-7</v>
+        <v>5.843899423462387E-7</v>
       </c>
       <c r="E17" t="n">
-        <v>2.6619932876937793E-6</v>
+        <v>3.4210077417828193E-6</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4335718428796562E-9</v>
+        <v>7.620656111955478E-8</v>
       </c>
       <c r="G17" t="n">
-        <v>5.864612084507684E-9</v>
+        <v>1.809905826589426E-7</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1395,28 +1440,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>5.843899423462387E-7</v>
+        <v>6.400705978032024E-7</v>
       </c>
       <c r="E18" t="n">
-        <v>2.8803176901144106E-6</v>
+        <v>3.4210077417828193E-6</v>
       </c>
       <c r="F18" t="n">
-        <v>7.620656111955478E-8</v>
+        <v>3.757542077086516E-8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7586129489128025E-7</v>
+        <v>9.915736036756084E-8</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1424,28 +1469,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>7.0</v>
+        <v>69.0</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>5.846548014754068E-7</v>
+        <v>6.615061332726194E-7</v>
       </c>
       <c r="E19" t="n">
-        <v>2.8803176901144106E-6</v>
+        <v>3.4210077417828193E-6</v>
       </c>
       <c r="F19" t="n">
-        <v>2.5412258428035355E-4</v>
+        <v>5.253196659349001E-10</v>
       </c>
       <c r="G19" t="n">
-        <v>4.0841129616485394E-4</v>
+        <v>2.495268413190775E-9</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1453,28 +1498,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>70.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>6.255092048247951E-7</v>
+        <v>6.842015483565639E-7</v>
       </c>
       <c r="E20" t="n">
-        <v>2.8803176901144106E-6</v>
+        <v>3.4210077417828193E-6</v>
       </c>
       <c r="F20" t="n">
-        <v>5.000248541094798E-10</v>
+        <v>0.016254774115268107</v>
       </c>
       <c r="G20" t="n">
-        <v>2.250111843492659E-9</v>
+        <v>0.021447271402089862</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1482,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>6.400705978032024E-7</v>
+        <v>8.268862960061155E-7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8803176901144106E-6</v>
+        <v>3.927709906029049E-6</v>
       </c>
       <c r="F21" t="n">
-        <v>3.757542077086516E-8</v>
+        <v>5.1948163357052315E-15</v>
       </c>
       <c r="G21" t="n">
-        <v>9.39385519271629E-8</v>
+        <v>4.93507551891997E-13</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1511,28 +1556,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>8.268862960061155E-7</v>
+        <v>9.23826244516216E-7</v>
       </c>
       <c r="E22" t="n">
-        <v>3.5437984114547806E-6</v>
+        <v>4.011945688469682E-6</v>
       </c>
       <c r="F22" t="n">
-        <v>5.1948163357052315E-15</v>
+        <v>9.83990935526497E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>4.675334702134708E-13</v>
+        <v>1.9077375280615756E-6</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1540,28 +1585,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>8.917266923767926E-7</v>
+        <v>9.290821594350841E-7</v>
       </c>
       <c r="E23" t="n">
-        <v>3.6355388847459813E-6</v>
+        <v>4.011945688469682E-6</v>
       </c>
       <c r="F23" t="n">
-        <v>9.73569984387037E-9</v>
+        <v>3.363573525525124E-8</v>
       </c>
       <c r="G23" t="n">
-        <v>3.129332092672619E-8</v>
+        <v>9.39822014484961E-8</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1569,28 +1614,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D24" t="n">
-        <v>9.290821594350841E-7</v>
+        <v>1.0358069423462125E-6</v>
       </c>
       <c r="E24" t="n">
-        <v>3.6355388847459813E-6</v>
+        <v>4.2783330227343554E-6</v>
       </c>
       <c r="F24" t="n">
-        <v>3.363573525525124E-8</v>
+        <v>2.6466862685606792E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>8.903576979331209E-8</v>
+        <v>4.4899142055940096E-5</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1598,28 +1643,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0358069423462125E-6</v>
+        <v>1.091845228187738E-6</v>
       </c>
       <c r="E25" t="n">
-        <v>3.884276033798297E-6</v>
+        <v>4.321887361576464E-6</v>
       </c>
       <c r="F25" t="n">
-        <v>2.6466862685606792E-5</v>
+        <v>0.001201670097547357</v>
       </c>
       <c r="G25" t="n">
-        <v>4.411143780934466E-5</v>
+        <v>0.0018412686978548213</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1627,28 +1672,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>123.0</v>
+        <v>14.0</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5443692796510783E-6</v>
+        <v>1.322963114896674E-6</v>
       </c>
       <c r="E26" t="n">
-        <v>5.559729406743882E-6</v>
+        <v>5.027259836607361E-6</v>
       </c>
       <c r="F26" t="n">
-        <v>2.5641259292117027E-13</v>
+        <v>1.2343971953174881E-8</v>
       </c>
       <c r="G26" t="n">
-        <v>5.769283340726331E-12</v>
+        <v>4.1881333412557634E-8</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1656,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>116.0</v>
+        <v>123.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>1.8256076156532243E-6</v>
+        <v>1.5443692796510783E-6</v>
       </c>
       <c r="E27" t="n">
-        <v>6.319410977261162E-6</v>
+        <v>5.642887752571248E-6</v>
       </c>
       <c r="F27" t="n">
-        <v>3.503313614905692E-9</v>
+        <v>2.5641259292117027E-13</v>
       </c>
       <c r="G27" t="n">
-        <v>1.2241821625610879E-8</v>
+        <v>6.089799081877794E-12</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1688,25 +1733,25 @@
         <v>6.0</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
         <v>2.213587400945968E-6</v>
       </c>
       <c r="E28" t="n">
-        <v>7.1726567999531014E-6</v>
+        <v>7.571137733283829E-6</v>
       </c>
       <c r="F28" t="n">
         <v>8.085463002606188E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0012546408107492362</v>
+        <v>0.0012801983087459797</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1717,25 +1762,25 @@
         <v>9.0</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D29" t="n">
         <v>2.231493226652076E-6</v>
       </c>
       <c r="E29" t="n">
-        <v>7.1726567999531014E-6</v>
+        <v>7.571137733283829E-6</v>
       </c>
       <c r="F29" t="n">
         <v>5.9258664772496966E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0666559659049455E-5</v>
+        <v>1.0621836138466438E-5</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1746,25 +1791,25 @@
         <v>7.0</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
         <v>2.4899627767557354E-6</v>
       </c>
       <c r="E30" t="n">
-        <v>7.727470686483317E-6</v>
+        <v>8.156774613510168E-6</v>
       </c>
       <c r="F30" t="n">
         <v>8.943591120116366E-7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.6427004098172918E-6</v>
+        <v>1.770085742523031E-6</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1772,28 +1817,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>16.0</v>
+        <v>119.0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>2.9990764466021537E-6</v>
+        <v>2.6108027389226396E-6</v>
       </c>
       <c r="E31" t="n">
-        <v>8.99722933980646E-6</v>
+        <v>8.267542006588358E-6</v>
       </c>
       <c r="F31" t="n">
-        <v>2.5873148747511314E-10</v>
+        <v>4.814555012414992E-9</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2936574373755656E-9</v>
+        <v>1.759164331459324E-8</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1801,28 +1846,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" t="n">
-        <v>3.85410677562621E-6</v>
+        <v>2.9990764466021537E-6</v>
       </c>
       <c r="E32" t="n">
-        <v>1.1189342251818031E-5</v>
+        <v>9.19071814281305E-6</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9076498739692912E-7</v>
+        <v>2.5873148747511314E-10</v>
       </c>
       <c r="G32" t="n">
-        <v>4.087821158505624E-7</v>
+        <v>1.3655272950075416E-9</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1833,25 +1878,25 @@
         <v>91.0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D33" t="n">
         <v>4.1233909939240266E-6</v>
       </c>
       <c r="E33" t="n">
-        <v>1.1597037170411325E-5</v>
+        <v>1.2241317013211955E-5</v>
       </c>
       <c r="F33" t="n">
         <v>1.5744376484547811E-12</v>
       </c>
       <c r="G33" t="n">
-        <v>1.7712423545116288E-11</v>
+        <v>1.661906406702269E-11</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1859,28 +1904,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>41.0</v>
+        <v>13.0</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>4.882233975375922E-6</v>
+        <v>5.415416487355696E-6</v>
       </c>
       <c r="E34" t="n">
-        <v>1.331518356920706E-5</v>
+        <v>1.538596813872014E-5</v>
       </c>
       <c r="F34" t="n">
-        <v>1.507345796120268E-8</v>
+        <v>5.7272139565159235E-8</v>
       </c>
       <c r="G34" t="n">
-        <v>4.677969712097383E-8</v>
+        <v>1.4318034891289808E-7</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1888,28 +1933,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" t="n">
-        <v>5.415416487355696E-6</v>
+        <v>5.506557018068261E-6</v>
       </c>
       <c r="E35" t="n">
-        <v>1.4334925995941548E-5</v>
+        <v>1.538596813872014E-5</v>
       </c>
       <c r="F35" t="n">
-        <v>5.7272139565159235E-8</v>
+        <v>1.703467255890905E-8</v>
       </c>
       <c r="G35" t="n">
-        <v>1.3931060975309004E-7</v>
+        <v>5.3943129769878655E-8</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1920,25 +1965,25 @@
         <v>11.0</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D36" t="n">
         <v>6.324011241026909E-6</v>
       </c>
       <c r="E36" t="n">
-        <v>1.626174319121205E-5</v>
+        <v>1.716517336850161E-5</v>
       </c>
       <c r="F36" t="n">
         <v>4.924107553735762E-7</v>
       </c>
       <c r="G36" t="n">
-        <v>9.429142124174864E-7</v>
+        <v>1.0169352556628205E-6</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1949,25 +1994,25 @@
         <v>3.0</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" t="n">
         <v>6.862045001670773E-6</v>
       </c>
       <c r="E37" t="n">
-        <v>1.715511250417693E-5</v>
+        <v>1.810817430996454E-5</v>
       </c>
       <c r="F37" t="n">
         <v>0.08599134929016565</v>
       </c>
       <c r="G37" t="n">
-        <v>0.10458407346101228</v>
+        <v>0.10573215353134341</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1978,25 +2023,25 @@
         <v>19.0</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38" t="n">
         <v>1.2960485994198265E-5</v>
       </c>
       <c r="E38" t="n">
-        <v>3.152550647237416E-5</v>
+        <v>3.327692349861717E-5</v>
       </c>
       <c r="F38" t="n">
         <v>4.0377501154874836E-14</v>
       </c>
       <c r="G38" t="n">
-        <v>1.211325034646245E-12</v>
+        <v>1.2786208699043699E-12</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -2007,25 +2052,25 @@
         <v>11.0</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
         <v>1.3673169809497255E-5</v>
       </c>
       <c r="E39" t="n">
-        <v>3.238382323301981E-5</v>
+        <v>3.418292452374314E-5</v>
       </c>
       <c r="F39" t="n">
         <v>2.3008758090036468E-7</v>
       </c>
       <c r="G39" t="n">
-        <v>4.7063368820529136E-7</v>
+        <v>4.967800042166965E-7</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2036,25 +2081,25 @@
         <v>11.0</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
         <v>1.682414400160095E-5</v>
       </c>
       <c r="E40" t="n">
-        <v>3.8368081524481396E-5</v>
+        <v>4.0499641609174806E-5</v>
       </c>
       <c r="F40" t="n">
         <v>3.33892624952419E-8</v>
       </c>
       <c r="G40" t="n">
-        <v>8.903576979331209E-8</v>
+        <v>9.39822014484961E-8</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -2065,25 +2110,25 @@
         <v>7.0</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
         <v>1.7052480677547287E-5</v>
       </c>
       <c r="E41" t="n">
-        <v>3.8368081524481396E-5</v>
+        <v>4.0499641609174806E-5</v>
       </c>
       <c r="F41" t="n">
         <v>8.326314412148473E-4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0012701157577853603</v>
+        <v>0.0012967210969739426</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -2091,28 +2136,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>3.448673355135275E-5</v>
+        <v>2.3429260240154308E-5</v>
       </c>
       <c r="E42" t="n">
-        <v>7.570258584443288E-5</v>
+        <v>5.428731031255266E-5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1411886385333558</v>
+        <v>4.0731690871814244E-8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.16719707194739503</v>
+        <v>1.045813684546582E-7</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -2120,28 +2165,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>37.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D43" t="n">
-        <v>4.823726291618413E-5</v>
+        <v>3.448673355135275E-5</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0336556339182313E-4</v>
+        <v>7.800570684234552E-5</v>
       </c>
       <c r="F43" t="n">
-        <v>3.536526247398698E-9</v>
+        <v>0.1411886385333558</v>
       </c>
       <c r="G43" t="n">
-        <v>1.2241821625610879E-8</v>
+        <v>0.16596349243135247</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2149,28 +2194,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>6.0812673823941285E-5</v>
+        <v>4.823726291618413E-5</v>
       </c>
       <c r="E44" t="n">
-        <v>1.2484053959379706E-4</v>
+        <v>1.065706971404068E-4</v>
       </c>
       <c r="F44" t="n">
-        <v>5.722946131787631E-7</v>
+        <v>3.536526247398698E-9</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0730523997101808E-6</v>
+        <v>1.3438799740115053E-8</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -2178,28 +2223,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>6.103315269030079E-5</v>
+        <v>6.0812673823941285E-5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.2484053959379706E-4</v>
+        <v>1.264868540053434E-4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004404271653053463</v>
+        <v>5.722946131787631E-7</v>
       </c>
       <c r="G45" t="n">
-        <v>0.006098222288843257</v>
+        <v>1.1567657074889893E-6</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -2210,25 +2255,25 @@
         <v>5.0</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>8.169403462426108E-5</v>
+        <v>6.103315269030079E-5</v>
       </c>
       <c r="E46" t="n">
-        <v>1.6338806924852216E-4</v>
+        <v>1.264868540053434E-4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0033117591948248265</v>
+        <v>0.004404271653053463</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004807392379584425</v>
+        <v>0.006244862791642971</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -2236,28 +2281,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0915606880040644E-4</v>
+        <v>6.124626614995576E-5</v>
       </c>
       <c r="E47" t="n">
-        <v>2.135662215660126E-4</v>
+        <v>1.264868540053434E-4</v>
       </c>
       <c r="F47" t="n">
-        <v>8.001552287895842E-8</v>
+        <v>1.5709335006400044E-6</v>
       </c>
       <c r="G47" t="n">
-        <v>1.8003492647765644E-7</v>
+        <v>2.9847736512160082E-6</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -2265,28 +2310,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>1.276758090155047E-4</v>
+        <v>8.169403462426108E-5</v>
       </c>
       <c r="E48" t="n">
-        <v>2.4448559173181753E-4</v>
+        <v>1.6512624019797452E-4</v>
       </c>
       <c r="F48" t="n">
-        <v>9.146107340709945E-12</v>
+        <v>0.0033117591948248265</v>
       </c>
       <c r="G48" t="n">
-        <v>6.331920466645346E-11</v>
+        <v>0.00484026343859013</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -2294,28 +2339,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>1.5643785560090116E-4</v>
+        <v>1.0915606880040644E-4</v>
       </c>
       <c r="E49" t="n">
-        <v>2.933209792516897E-4</v>
+        <v>2.1603805283413775E-4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09855199736296151</v>
+        <v>8.001552287895842E-8</v>
       </c>
       <c r="G49" t="n">
-        <v>0.11826239683555381</v>
+        <v>1.8540182130490364E-7</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -2323,28 +2368,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7860525805754002E-4</v>
+        <v>1.276758090155047E-4</v>
       </c>
       <c r="E50" t="n">
-        <v>3.2805047398323675E-4</v>
+        <v>2.4753473176475404E-4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.530500935641835</v>
+        <v>9.146107340709945E-12</v>
       </c>
       <c r="G50" t="n">
-        <v>0.575241978406809</v>
+        <v>6.683693825903421E-11</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -2355,25 +2400,25 @@
         <v>3.0</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>2.209283437553444E-4</v>
+        <v>1.5643785560090116E-4</v>
       </c>
       <c r="E51" t="n">
-        <v>3.9767101875961994E-4</v>
+        <v>2.9723192564171217E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1432912313644182</v>
+        <v>0.09855199736296151</v>
       </c>
       <c r="G51" t="n">
-        <v>0.16748325743893036</v>
+        <v>0.11851189556305498</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -2381,28 +2426,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>2.787525674812637E-4</v>
+        <v>2.209283437553444E-4</v>
       </c>
       <c r="E52" t="n">
-        <v>4.919162955551712E-4</v>
+        <v>4.1153318934819056E-4</v>
       </c>
       <c r="F52" t="n">
-        <v>2.3260335492966094E-10</v>
+        <v>0.1432912313644182</v>
       </c>
       <c r="G52" t="n">
-        <v>1.231429526098205E-9</v>
+        <v>0.16600813389780159</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -2413,25 +2458,25 @@
         <v>2.0</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>2.9613037533823936E-4</v>
+        <v>2.3668069709318422E-4</v>
       </c>
       <c r="E53" t="n">
-        <v>5.125333419315681E-4</v>
+        <v>4.3239742738177884E-4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33125512735865437</v>
+        <v>0.7519969541514079</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3680612526207271</v>
+        <v>0.7850517653228984</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -2439,28 +2484,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>3.0470076173164795E-4</v>
+        <v>2.787525674812637E-4</v>
       </c>
       <c r="E54" t="n">
-        <v>5.174163878461946E-4</v>
+        <v>4.996508285041519E-4</v>
       </c>
       <c r="F54" t="n">
-        <v>0.007471966394202202</v>
+        <v>2.3260335492966094E-10</v>
       </c>
       <c r="G54" t="n">
-        <v>0.010189045083003003</v>
+        <v>1.299842277548105E-9</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -2468,28 +2513,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>27.0</v>
+        <v>2.0</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>3.607199052951646E-4</v>
+        <v>2.9613037533823936E-4</v>
       </c>
       <c r="E55" t="n">
-        <v>5.908762658629024E-4</v>
+        <v>5.209701047617174E-4</v>
       </c>
       <c r="F55" t="n">
-        <v>3.585628872486509E-11</v>
+        <v>0.33125512735865437</v>
       </c>
       <c r="G55" t="n">
-        <v>2.1513773234919052E-10</v>
+        <v>0.3659213616171182</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -2497,28 +2542,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>3.61226845711512E-4</v>
+        <v>3.0470076173164795E-4</v>
       </c>
       <c r="E56" t="n">
-        <v>5.908762658629024E-4</v>
+        <v>5.26301315718301E-4</v>
       </c>
       <c r="F56" t="n">
-        <v>3.1301934118000845E-8</v>
+        <v>0.007471966394202202</v>
       </c>
       <c r="G56" t="n">
-        <v>8.803668970687738E-8</v>
+        <v>0.01043877658013543</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -2526,28 +2571,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>3.6765634320358367E-4</v>
+        <v>3.607199052951646E-4</v>
       </c>
       <c r="E57" t="n">
-        <v>5.908762658629024E-4</v>
+        <v>6.020447428525201E-4</v>
       </c>
       <c r="F57" t="n">
-        <v>0.012302017823583759</v>
+        <v>3.585628872486509E-11</v>
       </c>
       <c r="G57" t="n">
-        <v>0.016046110204674467</v>
+        <v>2.2708982859081222E-10</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2600,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D58" t="n">
-        <v>4.088812523919173E-4</v>
+        <v>3.61226845711512E-4</v>
       </c>
       <c r="E58" t="n">
-        <v>6.456019774609221E-4</v>
+        <v>6.020447428525201E-4</v>
       </c>
       <c r="F58" t="n">
-        <v>2.3186037247927116E-9</v>
+        <v>3.1301934118000845E-8</v>
       </c>
       <c r="G58" t="n">
-        <v>9.072797183971481E-9</v>
+        <v>9.292761691281501E-8</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -2584,28 +2629,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D59" t="n">
-        <v>4.7198410890744366E-4</v>
+        <v>4.088812523919173E-4</v>
       </c>
       <c r="E59" t="n">
-        <v>7.323891345115505E-4</v>
+        <v>6.697192927108991E-4</v>
       </c>
       <c r="F59" t="n">
-        <v>6.106593406324559E-12</v>
+        <v>2.3186037247927116E-9</v>
       </c>
       <c r="G59" t="n">
-        <v>4.5799450547434196E-11</v>
+        <v>9.576841471969896E-9</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -2613,28 +2658,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D60" t="n">
-        <v>4.8335939837453116E-4</v>
+        <v>4.7198410890744366E-4</v>
       </c>
       <c r="E60" t="n">
-        <v>7.37327895825556E-4</v>
+        <v>7.599744126475787E-4</v>
       </c>
       <c r="F60" t="n">
-        <v>9.827552055148563E-6</v>
+        <v>6.106593406324559E-12</v>
       </c>
       <c r="G60" t="n">
-        <v>1.6688295942705106E-5</v>
+        <v>4.83438644667361E-11</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -2642,28 +2687,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>7.310120923200684E-4</v>
+        <v>4.8335939837453116E-4</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0010965181384801027</v>
+        <v>7.653190474263409E-4</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4354860100861704</v>
+        <v>9.827552055148563E-6</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4779724500945773</v>
+        <v>1.6974862640711153E-5</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -2671,28 +2716,28 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D62" t="n">
-        <v>7.4937212553495E-4</v>
+        <v>4.942161572969669E-4</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0011056310048876312</v>
+        <v>7.69680900708391E-4</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004062625827919519</v>
+        <v>0.14150571459936367</v>
       </c>
       <c r="G62" t="n">
-        <v>0.005713067570511823</v>
+        <v>0.16596349243135247</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -2703,25 +2748,25 @@
         <v>2.0</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D63" t="n">
-        <v>7.942732387670438E-4</v>
+        <v>7.310120923200684E-4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0011529772820811925</v>
+        <v>0.001120099173716234</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5511240165416675</v>
+        <v>0.4354860100861704</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5904900177232152</v>
+        <v>0.47553070066880676</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -2729,28 +2774,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D64" t="n">
-        <v>9.43652658493301E-4</v>
+        <v>7.4937212553495E-4</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0013480752264190014</v>
+        <v>0.001130005586124131</v>
       </c>
       <c r="F64" t="n">
-        <v>0.061467038109766586</v>
+        <v>0.004062625827919519</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07578127986135606</v>
+        <v>0.005847718994732641</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -2758,28 +2803,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0015549432788379935</v>
+        <v>7.942732387670438E-4</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0021866389858659283</v>
+        <v>0.0011789993387948305</v>
       </c>
       <c r="F65" t="n">
-        <v>2.5180747668378683E-12</v>
+        <v>0.5511240165416675</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2662672901540815E-11</v>
+        <v>0.5949634269483911</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -2787,28 +2832,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0022609548571537377</v>
+        <v>9.43652658493301E-4</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0031305528791359446</v>
+        <v>0.0013791846547209783</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0032263931939240367</v>
+        <v>0.061467038109766586</v>
       </c>
       <c r="G66" t="n">
-        <v>0.004760252253330546</v>
+        <v>0.07683379763720824</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -2816,28 +2861,28 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0023344882816415885</v>
+        <v>0.0011316074285113661</v>
       </c>
       <c r="E67" t="n">
-        <v>0.003183393111329439</v>
+        <v>0.001628828874372421</v>
       </c>
       <c r="F67" t="n">
-        <v>2.0812293929002512E-7</v>
+        <v>0.0868116628994188</v>
       </c>
       <c r="G67" t="n">
-        <v>4.356061520023782E-7</v>
+        <v>0.10573215353134341</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -2845,28 +2890,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>47.0</v>
+        <v>29.0</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002941916321675225</v>
+        <v>0.0015549432788379935</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003951827894787615</v>
+        <v>0.0022047703207404385</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5930666547939302E-8</v>
+        <v>2.5180747668378683E-12</v>
       </c>
       <c r="G68" t="n">
-        <v>7.528258030046895E-8</v>
+        <v>2.3921710284959748E-11</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -2874,28 +2919,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.003337859775401862</v>
+        <v>0.0022609548571537377</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0044177555850907</v>
+        <v>0.0031586869327883097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.013394199218242938</v>
+        <v>0.0032263931939240367</v>
       </c>
       <c r="G69" t="n">
-        <v>0.017221113280598065</v>
+        <v>0.004789177397230992</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -2903,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006370698436895952</v>
+        <v>0.0023344882816415885</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008309606656820807</v>
+        <v>0.0032141505326949405</v>
       </c>
       <c r="F70" t="n">
-        <v>5.55698163838109E-11</v>
+        <v>2.0812293929002512E-7</v>
       </c>
       <c r="G70" t="n">
-        <v>3.1258021715893633E-10</v>
+        <v>4.5980649378028804E-7</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -2932,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.007268184118674892</v>
+        <v>0.002646769005100944</v>
       </c>
       <c r="E71" t="n">
-        <v>0.009344808152582006</v>
+        <v>0.003592043649779853</v>
       </c>
       <c r="F71" t="n">
-        <v>7.691053013314831E-4</v>
+        <v>3.8125735523085744E-6</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001214376791576026</v>
+        <v>7.1018526954767565E-6</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -2961,28 +3006,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.007574697481389108</v>
+        <v>0.003337859775401862</v>
       </c>
       <c r="E72" t="n">
-        <v>0.009601729201760842</v>
+        <v>0.004466150403706717</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8427855693311063</v>
+        <v>0.013394199218242938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8522550701101075</v>
+        <v>0.018177841796186846</v>
       </c>
       <c r="H72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -2990,28 +3035,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>20.0</v>
+        <v>46.0</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008380653232950905</v>
+        <v>0.004302510899524771</v>
       </c>
       <c r="E73" t="n">
-        <v>0.010475816541188631</v>
+        <v>0.005676924103539629</v>
       </c>
       <c r="F73" t="n">
-        <v>2.03391654497536E-8</v>
+        <v>2.849639178504668E-8</v>
       </c>
       <c r="G73" t="n">
-        <v>6.10174963492608E-8</v>
+        <v>8.73276522444979E-8</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -3019,28 +3064,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.016315470466174698</v>
+        <v>0.006370698436895952</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02011496358843456</v>
+        <v>0.00829063495212487</v>
       </c>
       <c r="F74" t="n">
-        <v>2.4990869448246464E-7</v>
+        <v>5.55698163838109E-11</v>
       </c>
       <c r="G74" t="n">
-        <v>4.998173889649293E-7</v>
+        <v>3.299457847788772E-10</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -3048,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02408342598733372</v>
+        <v>0.006922930299270527</v>
       </c>
       <c r="E75" t="n">
-        <v>0.029290653227838307</v>
+        <v>0.008887545654468918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6279756204290052</v>
+        <v>1.0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.664915362807182</v>
+        <v>1.0</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -3077,28 +3122,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D76" t="n">
-        <v>0.046027898389242226</v>
+        <v>0.007268184118674892</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05523347806709067</v>
+        <v>0.00920636655032153</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0</v>
+        <v>7.691053013314831E-4</v>
       </c>
       <c r="G76" t="n">
-        <v>1.0</v>
+        <v>0.0012383898919744217</v>
       </c>
       <c r="H76" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -3106,28 +3151,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.059371411390425864</v>
+        <v>0.007574697481389108</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07030825033076747</v>
+        <v>0.009468371851736386</v>
       </c>
       <c r="F77" t="n">
-        <v>0.012010934845846331</v>
+        <v>0.8427855693311063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.015896825531267204</v>
+        <v>0.8609099901769365</v>
       </c>
       <c r="H77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -3135,28 +3180,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08356692674287466</v>
+        <v>0.010469143260434202</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09767562866050285</v>
+        <v>0.012916475451185055</v>
       </c>
       <c r="F78" t="n">
-        <v>4.620613364484422E-5</v>
+        <v>0.022956215899776863</v>
       </c>
       <c r="G78" t="n">
-        <v>7.561003687338145E-5</v>
+        <v>0.02987452754080551</v>
       </c>
       <c r="H78" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -3164,28 +3209,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08644200461900803</v>
+        <v>0.015497539216211168</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09974077456039387</v>
+        <v>0.01887520801974437</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01496709506391915</v>
+        <v>1.657795006466955E-8</v>
       </c>
       <c r="G79" t="n">
-        <v>0.018972374024686246</v>
+        <v>5.3943129769878655E-8</v>
       </c>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -3193,28 +3238,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09217458696754892</v>
+        <v>0.04203708970055838</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10500902312758738</v>
+        <v>0.05055093065257021</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6411775758273097</v>
+        <v>0.5677292559254168</v>
       </c>
       <c r="G80" t="n">
-        <v>0.670999788656487</v>
+        <v>0.606003138347355</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -3222,28 +3267,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1043906701274236</v>
+        <v>0.046027898389242226</v>
       </c>
       <c r="E81" t="n">
-        <v>0.11743950389335156</v>
+        <v>0.05465812933722514</v>
       </c>
       <c r="F81" t="n">
-        <v>3.4671604152852516E-8</v>
+        <v>1.0</v>
       </c>
       <c r="G81" t="n">
-        <v>8.915555353590647E-8</v>
+        <v>1.0</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -3251,28 +3296,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D82" t="n">
-        <v>0.17663876195791767</v>
+        <v>0.059371411390425864</v>
       </c>
       <c r="E82" t="n">
-        <v>0.19626529106435298</v>
+        <v>0.06963313681593157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8397938220443986</v>
+        <v>0.012010934845846331</v>
       </c>
       <c r="G82" t="n">
-        <v>0.8522550701101075</v>
+        <v>0.016536794352976832</v>
       </c>
       <c r="H82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -3280,28 +3325,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23602134112704562</v>
+        <v>0.08356692674287466</v>
       </c>
       <c r="E83" t="n">
-        <v>0.25904781343212324</v>
+        <v>0.09681534195820844</v>
       </c>
       <c r="F83" t="n">
-        <v>4.3699892349675124E-10</v>
+        <v>4.620613364484422E-5</v>
       </c>
       <c r="G83" t="n">
-        <v>2.069994900774085E-9</v>
+        <v>7.56824602803483E-5</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -3309,28 +3354,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2539954162656878</v>
+        <v>0.08644200461900803</v>
       </c>
       <c r="E84" t="n">
-        <v>0.27541671643267346</v>
+        <v>0.09893964384103329</v>
       </c>
       <c r="F84" t="n">
-        <v>0.18784583968182486</v>
+        <v>0.01496709506391915</v>
       </c>
       <c r="G84" t="n">
-        <v>0.21400158951093973</v>
+        <v>0.02002639480383548</v>
       </c>
       <c r="H84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -3338,28 +3383,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>50.0</v>
+        <v>13.0</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.27824478364005867</v>
+        <v>0.1043906701274236</v>
       </c>
       <c r="E85" t="n">
-        <v>0.29811941104292</v>
+        <v>0.11806087692982431</v>
       </c>
       <c r="F85" t="n">
-        <v>2.7390291800031692E-14</v>
+        <v>3.4671604152852516E-8</v>
       </c>
       <c r="G85" t="n">
-        <v>1.211325034646245E-12</v>
+        <v>9.410863984345683E-8</v>
       </c>
       <c r="H85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -3367,28 +3412,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2944354595372463</v>
+        <v>0.17663876195791767</v>
       </c>
       <c r="E86" t="n">
-        <v>0.311755192451202</v>
+        <v>0.1974197927764962</v>
       </c>
       <c r="F86" t="n">
-        <v>7.837499834874433E-6</v>
+        <v>0.8397938220443986</v>
       </c>
       <c r="G86" t="n">
-        <v>1.3564903560359596E-5</v>
+        <v>0.8609099901769365</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -3396,28 +3441,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4043974660288572</v>
+        <v>0.23602134112704562</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4232066504953157</v>
+        <v>0.26072124891941084</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6557583356920713</v>
+        <v>4.3699892349675124E-10</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6783706920952463</v>
+        <v>2.184994617483756E-9</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I87" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -3425,28 +3470,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D88" t="n">
-        <v>0.42409432690586146</v>
+        <v>0.2539954162656878</v>
       </c>
       <c r="E88" t="n">
-        <v>0.43871826921296014</v>
+        <v>0.27735131661195794</v>
       </c>
       <c r="F88" t="n">
-        <v>0.23803911180484358</v>
+        <v>0.18784583968182486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.267794000780449</v>
+        <v>0.21244469964015905</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -3454,28 +3499,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7078839192054445</v>
+        <v>0.27824478364005867</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7239721900964773</v>
+        <v>0.3003778914296088</v>
       </c>
       <c r="F89" t="n">
-        <v>1.9762671210300112E-12</v>
+        <v>2.7390291800031692E-14</v>
       </c>
       <c r="G89" t="n">
-        <v>1.9762671210300113E-11</v>
+        <v>1.2786208699043699E-12</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -3483,28 +3528,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7817176843735537</v>
+        <v>0.2944354595372463</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7905010291417959</v>
+        <v>0.3142850410790831</v>
       </c>
       <c r="F90" t="n">
-        <v>8.52403635276877E-9</v>
+        <v>7.837499834874433E-6</v>
       </c>
       <c r="G90" t="n">
-        <v>2.8413454509229237E-8</v>
+        <v>1.3788194153945761E-5</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -3512,28 +3557,173 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4043974660288572</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.42686399191934926</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6557583356920713</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.6921893543416309</v>
+      </c>
+      <c r="H91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4201741011523751</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4379234897397482</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.890954622215961E-6</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.935397867509929E-6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.42409432690586146</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4379234897397482</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.23803911180484358</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2660437131936487</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7817176843735537</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7985288173708345</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.52403635276877E-9</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.999197975974197E-8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
         <v>14.0</v>
       </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="n">
         <v>0.9244818543526356</v>
       </c>
-      <c r="E91" t="n">
-        <v>0.9244818543526356</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="E95" t="n">
+        <v>0.9343167676968127</v>
+      </c>
+      <c r="F95" t="n">
         <v>1.1257864946392919E-9</v>
       </c>
-      <c r="G91" t="n">
-        <v>4.824799262739822E-9</v>
-      </c>
-      <c r="H91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+      <c r="G95" t="n">
+        <v>5.092843666225368E-9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9751126167373754</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9751126167373754</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.85294881630571E-13</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.2014716250700605E-11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNAscr_16h_vs_H2O_16h_KEGG_FNN_16h.xlsx
@@ -155,33 +155,33 @@
     <t>fnu00900</t>
   </si>
   <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00430</t>
+  </si>
+  <si>
+    <t>fnu00710</t>
+  </si>
+  <si>
+    <t>fnu00330</t>
+  </si>
+  <si>
+    <t>fnu00052</t>
+  </si>
+  <si>
     <t>fnu00561</t>
   </si>
   <si>
-    <t>fnu00670</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00430</t>
-  </si>
-  <si>
-    <t>fnu00710</t>
-  </si>
-  <si>
-    <t>fnu00330</t>
-  </si>
-  <si>
-    <t>fnu00052</t>
-  </si>
-  <si>
     <t>fnu02060</t>
   </si>
   <si>
@@ -248,6 +248,9 @@
     <t>fnu00760</t>
   </si>
   <si>
+    <t>fnu01503</t>
+  </si>
+  <si>
     <t>fnu03420</t>
   </si>
   <si>
@@ -266,18 +269,18 @@
     <t>fnu00523</t>
   </si>
   <si>
-    <t>fnu01503</t>
+    <t>fnu03070</t>
+  </si>
+  <si>
+    <t>fnu00920</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
   </si>
   <si>
     <t>fnu02020</t>
   </si>
   <si>
-    <t>fnu00920</t>
-  </si>
-  <si>
-    <t>fnu00625</t>
-  </si>
-  <si>
     <t>fnu01502</t>
   </si>
   <si>
@@ -287,7 +290,7 @@
     <t>fnu00910</t>
   </si>
   <si>
-    <t>fnu03070</t>
+    <t>fnu01501</t>
   </si>
   <si>
     <t>fnu00552</t>
@@ -308,9 +311,6 @@
     <t>fnu00040</t>
   </si>
   <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
     <t>fnu00770</t>
   </si>
   <si>
@@ -443,33 +443,33 @@
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>Carbon fixation by Calvin cycle</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
     <t>Phosphotransferase system (PTS)</t>
   </si>
   <si>
@@ -536,6 +536,9 @@
     <t>Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
     <t>Nucleotide excision repair</t>
   </si>
   <si>
@@ -554,18 +557,18 @@
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
   </si>
   <si>
     <t>Two-component system</t>
   </si>
   <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
     <t>Vancomycin resistance</t>
   </si>
   <si>
@@ -575,7 +578,7 @@
     <t>Nitrogen metabolism</t>
   </si>
   <si>
-    <t>Bacterial secretion system</t>
+    <t>beta-Lactam resistance</t>
   </si>
   <si>
     <t>Teichoic acid biosynthesis</t>
@@ -596,9 +599,6 @@
     <t>Pentose and glucuronate interconversions</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Pantothenate and CoA biosynthesis</t>
   </si>
   <si>
@@ -647,7 +647,7 @@
     <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
@@ -728,9 +728,6 @@
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
   </si>
   <si>
-    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
-  </si>
-  <si>
     <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
   </si>
   <si>
@@ -755,6 +752,9 @@
     <t>cds-C4N14_05280;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01055;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
+    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
+  </si>
+  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
@@ -821,6 +821,9 @@
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
     <t>cds-C4N14_02440;cds-C4N14_04515;cds-C4N14_09610;cds-C4N14_09270;cds-C4N14_06700;cds-C4N14_06640;cds-C4N14_01175</t>
   </si>
   <si>
@@ -839,10 +842,7 @@
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05765;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
   </si>
   <si>
     <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
@@ -851,6 +851,9 @@
     <t>cds-C4N14_04880;cds-C4N14_09955</t>
   </si>
   <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_05765;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_10690;cds-C4N14_10705;cds-C4N14_10715;cds-C4N14_10725</t>
   </si>
   <si>
@@ -860,7 +863,7 @@
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
@@ -879,9 +882,6 @@
   </si>
   <si>
     <t>cds-C4N14_08825;cds-C4N14_05800;cds-C4N14_10515</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
@@ -1049,7 +1049,7 @@
         <v>2.961864772923097E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.172404805948726E-8</v>
+        <v>1.1255086137107767E-8</v>
       </c>
       <c r="H4" t="s">
         <v>107</v>
@@ -1252,7 +1252,7 @@
         <v>0.002311277973508396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0034852604362428192</v>
+        <v>0.0035414743142467356</v>
       </c>
       <c r="H11" t="s">
         <v>114</v>
@@ -1324,22 +1324,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>356.0</v>
+        <v>355.0</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>3.5493909550166376E-7</v>
+        <v>3.7466191073921363E-7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.5937856978967734E-6</v>
+        <v>2.6621918698431384E-6</v>
       </c>
       <c r="F14" t="n">
-        <v>1.8749534935682125E-11</v>
+        <v>1.949913762540954E-11</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2722898706355728E-10</v>
+        <v>1.3231557674385046E-10</v>
       </c>
       <c r="H14" t="s">
         <v>117</v>
@@ -1397,7 +1397,7 @@
         <v>1.4322917269173968E-9</v>
       </c>
       <c r="G16" t="n">
-        <v>6.184896093506941E-9</v>
+        <v>5.9159875677022905E-9</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
@@ -1513,7 +1513,7 @@
         <v>0.016254774115268107</v>
       </c>
       <c r="G20" t="n">
-        <v>0.021447271402089862</v>
+        <v>0.021153473163705073</v>
       </c>
       <c r="H20" t="s">
         <v>123</v>
@@ -1571,7 +1571,7 @@
         <v>9.83990935526497E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9077375280615756E-6</v>
+        <v>1.869582777500344E-6</v>
       </c>
       <c r="H22" t="s">
         <v>125</v>
@@ -1600,7 +1600,7 @@
         <v>3.363573525525124E-8</v>
       </c>
       <c r="G23" t="n">
-        <v>9.39822014484961E-8</v>
+        <v>9.129699569282478E-8</v>
       </c>
       <c r="H23" t="s">
         <v>126</v>
@@ -1658,7 +1658,7 @@
         <v>0.001201670097547357</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0018412686978548213</v>
+        <v>0.0018714534306065397</v>
       </c>
       <c r="H25" t="s">
         <v>128</v>
@@ -1687,7 +1687,7 @@
         <v>1.2343971953174881E-8</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1881333412557634E-8</v>
+        <v>4.043714950177978E-8</v>
       </c>
       <c r="H26" t="s">
         <v>129</v>
@@ -1803,7 +1803,7 @@
         <v>8.943591120116366E-7</v>
       </c>
       <c r="G30" t="n">
-        <v>1.770085742523031E-6</v>
+        <v>1.73396154369603E-6</v>
       </c>
       <c r="H30" t="s">
         <v>132</v>
@@ -1832,7 +1832,7 @@
         <v>4.814555012414992E-9</v>
       </c>
       <c r="G31" t="n">
-        <v>1.759164331459324E-8</v>
+        <v>1.6940100969608303E-8</v>
       </c>
       <c r="H31" t="s">
         <v>133</v>
@@ -1948,7 +1948,7 @@
         <v>1.703467255890905E-8</v>
       </c>
       <c r="G35" t="n">
-        <v>5.3943129769878655E-8</v>
+        <v>5.3538488474774106E-8</v>
       </c>
       <c r="H35" t="s">
         <v>137</v>
@@ -1977,7 +1977,7 @@
         <v>4.924107553735762E-7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.0169352556628205E-6</v>
+        <v>9.95298335329569E-7</v>
       </c>
       <c r="H36" t="s">
         <v>138</v>
@@ -2087,13 +2087,13 @@
         <v>1.682414400160095E-5</v>
       </c>
       <c r="E40" t="n">
-        <v>4.0499641609174806E-5</v>
+        <v>4.098188923466898E-5</v>
       </c>
       <c r="F40" t="n">
         <v>3.33892624952419E-8</v>
       </c>
       <c r="G40" t="n">
-        <v>9.39822014484961E-8</v>
+        <v>9.129699569282478E-8</v>
       </c>
       <c r="H40" t="s">
         <v>142</v>
@@ -2107,22 +2107,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>1.7052480677547287E-5</v>
+        <v>2.3429260240154308E-5</v>
       </c>
       <c r="E41" t="n">
-        <v>4.0499641609174806E-5</v>
+        <v>5.564449307036648E-5</v>
       </c>
       <c r="F41" t="n">
-        <v>8.326314412148473E-4</v>
+        <v>4.0731690871814244E-8</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0012967210969739426</v>
+        <v>1.045813684546582E-7</v>
       </c>
       <c r="H41" t="s">
         <v>143</v>
@@ -2136,22 +2136,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>2.3429260240154308E-5</v>
+        <v>3.448673355135275E-5</v>
       </c>
       <c r="E42" t="n">
-        <v>5.428731031255266E-5</v>
+        <v>7.990828505801247E-5</v>
       </c>
       <c r="F42" t="n">
-        <v>4.0731690871814244E-8</v>
+        <v>0.1411886385333558</v>
       </c>
       <c r="G42" t="n">
-        <v>1.045813684546582E-7</v>
+        <v>0.16596349243135247</v>
       </c>
       <c r="H42" t="s">
         <v>144</v>
@@ -2165,22 +2165,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
       </c>
       <c r="D43" t="n">
-        <v>3.448673355135275E-5</v>
+        <v>4.823726291618413E-5</v>
       </c>
       <c r="E43" t="n">
-        <v>7.800570684234552E-5</v>
+        <v>1.0910809469136887E-4</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1411886385333558</v>
+        <v>3.536526247398698E-9</v>
       </c>
       <c r="G43" t="n">
-        <v>0.16596349243135247</v>
+        <v>1.2921922827033705E-8</v>
       </c>
       <c r="H43" t="s">
         <v>145</v>
@@ -2194,22 +2194,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>37.0</v>
+        <v>12.0</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>4.823726291618413E-5</v>
+        <v>6.0812673823941285E-5</v>
       </c>
       <c r="E44" t="n">
-        <v>1.065706971404068E-4</v>
+        <v>1.2929767298323994E-4</v>
       </c>
       <c r="F44" t="n">
-        <v>3.536526247398698E-9</v>
+        <v>5.722946131787631E-7</v>
       </c>
       <c r="G44" t="n">
-        <v>1.3438799740115053E-8</v>
+        <v>1.132666421916302E-6</v>
       </c>
       <c r="H44" t="s">
         <v>146</v>
@@ -2223,22 +2223,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C45" t="s">
         <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>6.0812673823941285E-5</v>
+        <v>6.103315269030079E-5</v>
       </c>
       <c r="E45" t="n">
-        <v>1.264868540053434E-4</v>
+        <v>1.2929767298323994E-4</v>
       </c>
       <c r="F45" t="n">
-        <v>5.722946131787631E-7</v>
+        <v>0.004404271653053463</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1567657074889893E-6</v>
+        <v>0.006339481924849682</v>
       </c>
       <c r="H45" t="s">
         <v>147</v>
@@ -2252,22 +2252,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>6.103315269030079E-5</v>
+        <v>6.124626614995576E-5</v>
       </c>
       <c r="E46" t="n">
-        <v>1.264868540053434E-4</v>
+        <v>1.2929767298323994E-4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004404271653053463</v>
+        <v>1.5709335006400044E-6</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006244862791642971</v>
+        <v>2.926248677662753E-6</v>
       </c>
       <c r="H46" t="s">
         <v>148</v>
@@ -2281,22 +2281,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>6.124626614995576E-5</v>
+        <v>8.169403462426108E-5</v>
       </c>
       <c r="E47" t="n">
-        <v>1.264868540053434E-4</v>
+        <v>1.6871594107184353E-4</v>
       </c>
       <c r="F47" t="n">
-        <v>1.5709335006400044E-6</v>
+        <v>0.0033117591948248265</v>
       </c>
       <c r="G47" t="n">
-        <v>2.9847736512160082E-6</v>
+        <v>0.004915892554818102</v>
       </c>
       <c r="H47" t="s">
         <v>149</v>
@@ -2310,22 +2310,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>8.169403462426108E-5</v>
+        <v>1.0915606880040644E-4</v>
       </c>
       <c r="E48" t="n">
-        <v>1.6512624019797452E-4</v>
+        <v>2.206346071497577E-4</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0033117591948248265</v>
+        <v>8.001552287895842E-8</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00484026343859013</v>
+        <v>1.8540182130490364E-7</v>
       </c>
       <c r="H48" t="s">
         <v>150</v>
@@ -2339,22 +2339,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0915606880040644E-4</v>
+        <v>1.226763839998801E-4</v>
       </c>
       <c r="E49" t="n">
-        <v>2.1603805283413775E-4</v>
+        <v>2.427970099997627E-4</v>
       </c>
       <c r="F49" t="n">
-        <v>8.001552287895842E-8</v>
+        <v>0.005065753737666822</v>
       </c>
       <c r="G49" t="n">
-        <v>1.8540182130490364E-7</v>
+        <v>0.00707715595703453</v>
       </c>
       <c r="H49" t="s">
         <v>151</v>
@@ -2557,7 +2557,7 @@
         <v>0.007471966394202202</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01043877658013543</v>
+        <v>0.010287489963032017</v>
       </c>
       <c r="H56" t="s">
         <v>158</v>
@@ -2615,7 +2615,7 @@
         <v>3.1301934118000845E-8</v>
       </c>
       <c r="G58" t="n">
-        <v>9.292761691281501E-8</v>
+        <v>9.011162852151758E-8</v>
       </c>
       <c r="H58" t="s">
         <v>160</v>
@@ -2644,7 +2644,7 @@
         <v>2.3186037247927116E-9</v>
       </c>
       <c r="G59" t="n">
-        <v>9.576841471969896E-9</v>
+        <v>9.177806410637818E-9</v>
       </c>
       <c r="H59" t="s">
         <v>161</v>
@@ -2789,7 +2789,7 @@
         <v>0.004062625827919519</v>
       </c>
       <c r="G64" t="n">
-        <v>0.005847718994732641</v>
+        <v>0.005937683902343911</v>
       </c>
       <c r="H64" t="s">
         <v>166</v>
@@ -2934,7 +2934,7 @@
         <v>0.0032263931939240367</v>
       </c>
       <c r="G69" t="n">
-        <v>0.004789177397230992</v>
+        <v>0.004865196086075928</v>
       </c>
       <c r="H69" t="s">
         <v>171</v>
@@ -2992,7 +2992,7 @@
         <v>3.8125735523085744E-6</v>
       </c>
       <c r="G71" t="n">
-        <v>7.1018526954767565E-6</v>
+        <v>6.9652786051791265E-6</v>
       </c>
       <c r="H71" t="s">
         <v>173</v>
@@ -3006,22 +3006,22 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003337859775401862</v>
+        <v>0.003083010914687364</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004466150403706717</v>
+        <v>0.004125155449229571</v>
       </c>
       <c r="F72" t="n">
-        <v>0.013394199218242938</v>
+        <v>0.004521485412445876</v>
       </c>
       <c r="G72" t="n">
-        <v>0.018177841796186846</v>
+        <v>0.006411061405706839</v>
       </c>
       <c r="H72" t="s">
         <v>174</v>
@@ -3035,22 +3035,22 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>46.0</v>
+        <v>7.0</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004302510899524771</v>
+        <v>0.003337859775401862</v>
       </c>
       <c r="E73" t="n">
-        <v>0.005676924103539629</v>
+        <v>0.004404120536988567</v>
       </c>
       <c r="F73" t="n">
-        <v>2.849639178504668E-8</v>
+        <v>0.013394199218242938</v>
       </c>
       <c r="G73" t="n">
-        <v>8.73276522444979E-8</v>
+        <v>0.01792181585539548</v>
       </c>
       <c r="H73" t="s">
         <v>175</v>
@@ -3064,22 +3064,22 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>11.0</v>
+        <v>46.0</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006370698436895952</v>
+        <v>0.004302510899524771</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00829063495212487</v>
+        <v>0.005599158019929497</v>
       </c>
       <c r="F74" t="n">
-        <v>5.55698163838109E-11</v>
+        <v>2.849639178504668E-8</v>
       </c>
       <c r="G74" t="n">
-        <v>3.299457847788772E-10</v>
+        <v>8.459866311185733E-8</v>
       </c>
       <c r="H74" t="s">
         <v>176</v>
@@ -3093,22 +3093,22 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006922930299270527</v>
+        <v>0.006370698436895952</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008887545654468918</v>
+        <v>0.008178599344663721</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0</v>
+        <v>5.55698163838109E-11</v>
       </c>
       <c r="G75" t="n">
-        <v>1.0</v>
+        <v>3.299457847788772E-10</v>
       </c>
       <c r="H75" t="s">
         <v>177</v>
@@ -3122,22 +3122,22 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.007268184118674892</v>
+        <v>0.006922930299270527</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00920636655032153</v>
+        <v>0.008769045045742666</v>
       </c>
       <c r="F76" t="n">
-        <v>7.691053013314831E-4</v>
+        <v>1.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0012383898919744217</v>
+        <v>1.0</v>
       </c>
       <c r="H76" t="s">
         <v>178</v>
@@ -3151,22 +3151,22 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007574697481389108</v>
+        <v>0.007268184118674892</v>
       </c>
       <c r="E77" t="n">
-        <v>0.009468371851736386</v>
+        <v>0.009085230148343615</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8427855693311063</v>
+        <v>7.691053013314831E-4</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8609099901769365</v>
+        <v>0.0012383898919744217</v>
       </c>
       <c r="H77" t="s">
         <v>179</v>
@@ -3180,22 +3180,22 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C78" t="s">
         <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.010469143260434202</v>
+        <v>0.007574697481389108</v>
       </c>
       <c r="E78" t="n">
-        <v>0.012916475451185055</v>
+        <v>0.009345405983532017</v>
       </c>
       <c r="F78" t="n">
-        <v>0.022956215899776863</v>
+        <v>0.8427855693311063</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02987452754080551</v>
+        <v>0.8609099901769365</v>
       </c>
       <c r="H78" t="s">
         <v>180</v>
@@ -3209,22 +3209,22 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.015497539216211168</v>
+        <v>0.01030106579663843</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01887520801974437</v>
+        <v>0.012546169880521164</v>
       </c>
       <c r="F79" t="n">
-        <v>1.657795006466955E-8</v>
+        <v>8.115811092075767E-10</v>
       </c>
       <c r="G79" t="n">
-        <v>5.3943129769878655E-8</v>
+        <v>3.6714383511771324E-9</v>
       </c>
       <c r="H79" t="s">
         <v>181</v>
@@ -3276,7 +3276,7 @@
         <v>0.046027898389242226</v>
       </c>
       <c r="E81" t="n">
-        <v>0.05465812933722514</v>
+        <v>0.05456803646669533</v>
       </c>
       <c r="F81" t="n">
         <v>1.0</v>
@@ -3296,22 +3296,22 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C82" t="s">
         <v>103</v>
       </c>
       <c r="D82" t="n">
-        <v>0.059371411390425864</v>
+        <v>0.046526431092656015</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06963313681593157</v>
+        <v>0.05456803646669533</v>
       </c>
       <c r="F82" t="n">
-        <v>0.012010934845846331</v>
+        <v>1.7470454133873656E-8</v>
       </c>
       <c r="G82" t="n">
-        <v>0.016536794352976832</v>
+        <v>5.3538488474774106E-8</v>
       </c>
       <c r="H82" t="s">
         <v>184</v>
@@ -3325,22 +3325,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C83" t="s">
         <v>103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08356692674287466</v>
+        <v>0.059371411390425864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09681534195820844</v>
+        <v>0.06878395222061533</v>
       </c>
       <c r="F83" t="n">
-        <v>4.620613364484422E-5</v>
+        <v>0.012010934845846331</v>
       </c>
       <c r="G83" t="n">
-        <v>7.56824602803483E-5</v>
+        <v>0.016300554433648595</v>
       </c>
       <c r="H83" t="s">
         <v>185</v>
@@ -3354,22 +3354,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C84" t="s">
         <v>103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08644200461900803</v>
+        <v>0.08356692674287466</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09893964384103329</v>
+        <v>0.09564889205509751</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01496709506391915</v>
+        <v>4.620613364484422E-5</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02002639480383548</v>
+        <v>7.56824602803483E-5</v>
       </c>
       <c r="H84" t="s">
         <v>186</v>
@@ -3383,22 +3383,22 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1043906701274236</v>
+        <v>0.08644200461900803</v>
       </c>
       <c r="E85" t="n">
-        <v>0.11806087692982431</v>
+        <v>0.09776179093816384</v>
       </c>
       <c r="F85" t="n">
-        <v>3.4671604152852516E-8</v>
+        <v>0.01496709506391915</v>
       </c>
       <c r="G85" t="n">
-        <v>9.410863984345683E-8</v>
+        <v>0.019748250431559988</v>
       </c>
       <c r="H85" t="s">
         <v>187</v>
@@ -3412,22 +3412,22 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17663876195791767</v>
+        <v>0.1044283039394402</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1974197927764962</v>
+        <v>0.11671398675584493</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8397938220443986</v>
+        <v>4.84418944986861E-7</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8609099901769365</v>
+        <v>9.95298335329569E-7</v>
       </c>
       <c r="H86" t="s">
         <v>188</v>
@@ -3441,22 +3441,22 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="C87" t="s">
         <v>103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23602134112704562</v>
+        <v>0.17663876195791767</v>
       </c>
       <c r="E87" t="n">
-        <v>0.26072124891941084</v>
+        <v>0.195124213790723</v>
       </c>
       <c r="F87" t="n">
-        <v>4.3699892349675124E-10</v>
+        <v>0.8397938220443986</v>
       </c>
       <c r="G87" t="n">
-        <v>2.184994617483756E-9</v>
+        <v>0.8609099901769365</v>
       </c>
       <c r="H87" t="s">
         <v>189</v>
@@ -3470,22 +3470,22 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2539954162656878</v>
+        <v>0.23602134112704562</v>
       </c>
       <c r="E88" t="n">
-        <v>0.27735131661195794</v>
+        <v>0.25772445295481994</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18784583968182486</v>
+        <v>4.3699892349675124E-10</v>
       </c>
       <c r="G88" t="n">
-        <v>0.21244469964015905</v>
+        <v>2.184994617483756E-9</v>
       </c>
       <c r="H88" t="s">
         <v>190</v>
@@ -3499,22 +3499,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>50.0</v>
+        <v>5.0</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D89" t="n">
-        <v>0.27824478364005867</v>
+        <v>0.2539954162656878</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3003778914296088</v>
+        <v>0.27419959710500386</v>
       </c>
       <c r="F89" t="n">
-        <v>2.7390291800031692E-14</v>
+        <v>0.18784583968182486</v>
       </c>
       <c r="G89" t="n">
-        <v>1.2786208699043699E-12</v>
+        <v>0.21244469964015905</v>
       </c>
       <c r="H89" t="s">
         <v>191</v>
@@ -3528,22 +3528,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>8.0</v>
+        <v>50.0</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2944354595372463</v>
+        <v>0.27824478364005867</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3142850410790831</v>
+        <v>0.29700285894163564</v>
       </c>
       <c r="F90" t="n">
-        <v>7.837499834874433E-6</v>
+        <v>2.7390291800031692E-14</v>
       </c>
       <c r="G90" t="n">
-        <v>1.3788194153945761E-5</v>
+        <v>1.2786208699043699E-12</v>
       </c>
       <c r="H90" t="s">
         <v>192</v>
@@ -3557,22 +3557,22 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4043974660288572</v>
+        <v>0.2944354595372463</v>
       </c>
       <c r="E91" t="n">
-        <v>0.42686399191934926</v>
+        <v>0.31079298506709335</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6557583356920713</v>
+        <v>7.837499834874433E-6</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6921893543416309</v>
+        <v>1.3788194153945761E-5</v>
       </c>
       <c r="H91" t="s">
         <v>193</v>
@@ -3586,22 +3586,22 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4201741011523751</v>
+        <v>0.4043974660288572</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4379234897397482</v>
+        <v>0.4221731788213344</v>
       </c>
       <c r="F92" t="n">
-        <v>4.890954622215961E-6</v>
+        <v>0.6557583356920713</v>
       </c>
       <c r="G92" t="n">
-        <v>8.935397867509929E-6</v>
+        <v>0.6921893543416309</v>
       </c>
       <c r="H92" t="s">
         <v>194</v>
@@ -3659,7 +3659,7 @@
         <v>8.52403635276877E-9</v>
       </c>
       <c r="G94" t="n">
-        <v>2.999197975974197E-8</v>
+        <v>2.892083762546547E-8</v>
       </c>
       <c r="H94" t="s">
         <v>196</v>
@@ -3688,7 +3688,7 @@
         <v>1.1257864946392919E-9</v>
       </c>
       <c r="G95" t="n">
-        <v>5.092843666225368E-9</v>
+        <v>4.8613507723060334E-9</v>
       </c>
       <c r="H95" t="s">
         <v>197</v>
